--- a/results/mp/logistic/corona/confidence/42/stop-words-desired-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-desired-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="117">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,55 +49,64 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>warning</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>hell</t>
+    <t>drop</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>pressure</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>emergency</t>
@@ -106,19 +115,10 @@
     <t>lower</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>risk</t>
   </si>
   <si>
     <t>stop</t>
@@ -136,6 +136,9 @@
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
@@ -145,172 +148,181 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>sure</t>
   </si>
   <si>
     <t>clean</t>
@@ -319,28 +331,40 @@
     <t>helping</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>increased</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>increased</t>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>keep</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
-    <t>19</t>
+    <t>get</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
 </sst>
 </file>
@@ -698,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,10 +730,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -767,13 +791,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.868421052631579</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -785,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -809,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -838,16 +862,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -859,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -867,13 +891,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8287671232876712</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C5">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D5">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -885,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>0.95</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -909,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -917,13 +941,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8235294117647058</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -935,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -959,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -967,13 +991,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -985,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1009,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1017,13 +1041,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1035,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1059,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1067,13 +1091,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7567567567567568</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1085,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.9033942558746736</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>346</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>346</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1109,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1117,13 +1141,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7222222222222222</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1135,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>0.9017857142857143</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1159,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1167,13 +1191,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.72</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1185,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.8947368421052632</v>
+        <v>0.8981723237597912</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>344</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>344</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1209,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1217,13 +1241,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1235,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.890625</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1259,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1267,13 +1291,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6296296296296297</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C13">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1285,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1309,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1317,13 +1341,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6086956521739131</v>
+        <v>0.7</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1338,16 +1362,16 @@
         <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>0.8888888888888888</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L14">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="M14">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1359,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1367,13 +1391,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5523255813953488</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C15">
-        <v>285</v>
+        <v>107</v>
       </c>
       <c r="D15">
-        <v>285</v>
+        <v>107</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1385,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>0.8837209302325582</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1409,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1417,38 +1441,38 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5384615384615384</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C16">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>26</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16">
+        <v>0.875</v>
+      </c>
+      <c r="L16">
         <v>14</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>14</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>12</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16">
-        <v>0.8802816901408451</v>
-      </c>
-      <c r="L16">
-        <v>125</v>
-      </c>
-      <c r="M16">
-        <v>125</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1459,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1467,13 +1491,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5185185185185185</v>
+        <v>0.5193798449612403</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1485,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>248</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>0.8793103448275862</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L17">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1509,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1517,13 +1541,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4915254237288136</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1535,19 +1559,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>0.875</v>
+        <v>0.8671875</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1559,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1567,37 +1591,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4901960784313725</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>25</v>
       </c>
-      <c r="D19">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>26</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>0.8723404255319149</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1609,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1617,13 +1641,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4324324324324325</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1635,19 +1659,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K20">
-        <v>0.8666666666666667</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L20">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1659,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1667,13 +1691,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4193548387096774</v>
+        <v>0.475</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1685,19 +1709,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21">
-        <v>0.8636363636363636</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1709,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1717,13 +1741,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.375</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1735,19 +1759,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K22">
-        <v>0.8536585365853658</v>
+        <v>0.8375</v>
       </c>
       <c r="L22">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="M22">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1759,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1767,13 +1791,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.36</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1785,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>0.85</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L23">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="M23">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1809,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1817,13 +1841,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3392857142857143</v>
+        <v>0.3557046979865772</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1835,19 +1859,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K24">
-        <v>0.839622641509434</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L24">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1859,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1867,13 +1891,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2909090909090909</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1885,19 +1909,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K25">
-        <v>0.8148148148148148</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1909,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1917,13 +1941,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.275</v>
+        <v>0.32</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1935,19 +1959,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K26">
-        <v>0.8125</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1959,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1967,13 +1991,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2727272727272727</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1988,16 +2012,16 @@
         <v>40</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K27">
-        <v>0.7916666666666666</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2009,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2017,13 +2041,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2684563758389262</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C28">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2035,19 +2059,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K28">
-        <v>0.7857142857142857</v>
+        <v>0.8</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2059,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2067,13 +2091,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1666666666666667</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2085,19 +2109,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K29">
-        <v>0.78</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2109,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2117,13 +2141,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1388888888888889</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="C30">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D30">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2135,19 +2159,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K30">
-        <v>0.7727272727272727</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2159,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2167,13 +2191,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06702412868632708</v>
+        <v>0.1340482573726542</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2185,10 +2209,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K31">
         <v>0.7647058823529411</v>
@@ -2217,13 +2241,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.05</v>
+        <v>0.06333333333333334</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2235,19 +2259,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K32">
-        <v>0.7619047619047619</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L32">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="M32">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2259,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2267,37 +2291,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.01211072664359862</v>
+        <v>0.01813471502590673</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E33">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="F33">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K33">
-        <v>0.7428571428571429</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2309,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2317,37 +2341,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01033925686591276</v>
+        <v>0.01487229227287423</v>
       </c>
       <c r="C34">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D34">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E34">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="F34">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>3063</v>
+        <v>3047</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K34">
-        <v>0.7407407407407407</v>
+        <v>0.7264705882352941</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2359,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2367,37 +2391,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004420587306599305</v>
+        <v>0.01228733459357278</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E35">
-        <v>0.71</v>
+        <v>0.51</v>
       </c>
       <c r="F35">
-        <v>0.29</v>
+        <v>0.49</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>3153</v>
+        <v>2090</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K35">
-        <v>0.7368421052631579</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2409,21 +2433,45 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.009220985691573928</v>
+      </c>
+      <c r="C36">
+        <v>29</v>
+      </c>
+      <c r="D36">
+        <v>85</v>
+      </c>
+      <c r="E36">
+        <v>0.66</v>
+      </c>
+      <c r="F36">
+        <v>0.34</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>3116</v>
+      </c>
       <c r="J36" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K36">
-        <v>0.7235294117647059</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L36">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="M36">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2435,47 +2483,47 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K37">
-        <v>0.7201365187713311</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L37">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="M37">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="N37">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K38">
-        <v>0.702928870292887</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L38">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2487,21 +2535,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K39">
-        <v>0.696969696969697</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2513,21 +2561,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K40">
-        <v>0.6808510638297872</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L40">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="M40">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2539,21 +2587,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K41">
-        <v>0.6785714285714286</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2565,21 +2613,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K42">
-        <v>0.676923076923077</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L42">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2591,21 +2639,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K43">
-        <v>0.675</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M43">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2617,21 +2665,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K44">
-        <v>0.6714285714285714</v>
+        <v>0.64</v>
       </c>
       <c r="L44">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M44">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2643,21 +2691,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K45">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2669,21 +2717,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K46">
-        <v>0.6629213483146067</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L46">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M46">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2695,21 +2743,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K47">
-        <v>0.6521739130434783</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2721,21 +2769,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K48">
-        <v>0.6296296296296297</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2747,21 +2795,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K49">
-        <v>0.6274509803921569</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L49">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2773,12 +2821,12 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K50">
         <v>0.5833333333333334</v>
@@ -2804,16 +2852,16 @@
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K51">
-        <v>0.5769230769230769</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2825,21 +2873,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K52">
-        <v>0.5714285714285714</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2851,12 +2899,12 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K53">
         <v>0.5652173913043478</v>
@@ -2882,16 +2930,16 @@
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K54">
-        <v>0.5555555555555556</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="L54">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M54">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2903,12 +2951,12 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K55">
         <v>0.5476190476190477</v>
@@ -2934,16 +2982,16 @@
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K56">
-        <v>0.5068493150684932</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L56">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2955,21 +3003,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K57">
-        <v>0.5</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L57">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="M57">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2981,21 +3029,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K58">
         <v>0.5</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M58">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3007,21 +3055,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K59">
-        <v>0.4705882352941176</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L59">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M59">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3033,21 +3081,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K60">
-        <v>0.4193548387096774</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L60">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M60">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3064,16 +3112,16 @@
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K61">
-        <v>0.4067796610169492</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L61">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M61">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3085,21 +3133,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K62">
-        <v>0.375</v>
+        <v>0.421875</v>
       </c>
       <c r="L62">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M62">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3111,21 +3159,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K63">
-        <v>0.360655737704918</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L63">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M63">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3137,21 +3185,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K64">
-        <v>0.3508771929824561</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L64">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M64">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3163,21 +3211,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K65">
-        <v>0.35</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L65">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M65">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3189,15 +3237,15 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K66">
-        <v>0.1944444444444444</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L66">
         <v>14</v>
@@ -3215,47 +3263,47 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K67">
-        <v>0.1308411214953271</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="L67">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M67">
         <v>16</v>
       </c>
       <c r="N67">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K68">
-        <v>0.05194805194805195</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="L68">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M68">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3267,59 +3315,293 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>292</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="K69">
-        <v>0.01066834013178538</v>
+        <v>0.1203703703703704</v>
       </c>
       <c r="L69">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="N69">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="O69">
-        <v>0.29</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>3153</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K70">
-        <v>0.006094702297233943</v>
+        <v>0.0979020979020979</v>
       </c>
       <c r="L70">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M70">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N70">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>2120</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K71">
+        <v>0.08648648648648649</v>
+      </c>
+      <c r="L71">
+        <v>16</v>
+      </c>
+      <c r="M71">
+        <v>16</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K72">
+        <v>0.06818181818181818</v>
+      </c>
+      <c r="L72">
+        <v>21</v>
+      </c>
+      <c r="M72">
+        <v>21</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K73">
+        <v>0.04918032786885246</v>
+      </c>
+      <c r="L73">
+        <v>15</v>
+      </c>
+      <c r="M73">
+        <v>16</v>
+      </c>
+      <c r="N73">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O73">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K74">
+        <v>0.03614457831325301</v>
+      </c>
+      <c r="L74">
+        <v>15</v>
+      </c>
+      <c r="M74">
+        <v>16</v>
+      </c>
+      <c r="N74">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O74">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K75">
+        <v>0.02803738317757009</v>
+      </c>
+      <c r="L75">
+        <v>18</v>
+      </c>
+      <c r="M75">
+        <v>26</v>
+      </c>
+      <c r="N75">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O75">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K76">
+        <v>0.01765447667087012</v>
+      </c>
+      <c r="L76">
+        <v>56</v>
+      </c>
+      <c r="M76">
+        <v>85</v>
+      </c>
+      <c r="N76">
+        <v>0.66</v>
+      </c>
+      <c r="O76">
+        <v>0.34</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K77">
+        <v>0.01453790238836968</v>
+      </c>
+      <c r="L77">
+        <v>14</v>
+      </c>
+      <c r="M77">
+        <v>19</v>
+      </c>
+      <c r="N77">
+        <v>0.74</v>
+      </c>
+      <c r="O77">
+        <v>0.26</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K78">
+        <v>0.01275389702409069</v>
+      </c>
+      <c r="L78">
+        <v>27</v>
+      </c>
+      <c r="M78">
+        <v>53</v>
+      </c>
+      <c r="N78">
+        <v>0.51</v>
+      </c>
+      <c r="O78">
+        <v>0.49</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K79">
+        <v>0.004573668735707285</v>
+      </c>
+      <c r="L79">
+        <v>14</v>
+      </c>
+      <c r="M79">
+        <v>60</v>
+      </c>
+      <c r="N79">
+        <v>0.23</v>
+      </c>
+      <c r="O79">
+        <v>0.77</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>3047</v>
       </c>
     </row>
   </sheetData>
